--- a/Greengarden/Ressources/Travaux/Back end/Scripts/Consultation client.xlsx
+++ b/Greengarden/Ressources/Travaux/Back end/Scripts/Consultation client.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id_client</t>
   </si>
@@ -75,33 +75,6 @@
     <t>Particulier</t>
   </si>
   <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>Gunter</t>
-  </si>
-  <si>
-    <t>morales@orange.fr</t>
-  </si>
-  <si>
-    <t>01 02 03 04 05</t>
-  </si>
-  <si>
-    <t>1 Rue blablabla</t>
-  </si>
-  <si>
-    <t>Pouetville</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>Consultation d'un client</t>
-  </si>
-  <si>
     <t>Requete</t>
   </si>
   <si>
@@ -109,13 +82,49 @@
   </si>
   <si>
     <t>select * from client where nomClient="Morales";</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Navarro</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>a.facilisis.non@yahoo.ca</t>
+  </si>
+  <si>
+    <t>03 35 18 94 37</t>
+  </si>
+  <si>
+    <t>P.O. Box 201, 429 Ut, Av.</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>243-4326 Sit Avenue</t>
+  </si>
+  <si>
+    <t>Châlons-en-Champagne</t>
+  </si>
+  <si>
+    <t>Cde</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>Consultation d'une fiche client (Navarro)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +255,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -592,11 +616,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,38 +946,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
+    <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
+    <row r="6" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1007,58 +1036,61 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1">
-        <v>66666</v>
+        <v>78350</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M8" s="1">
-        <v>66666</v>
+        <v>13691</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>